--- a/Output/Habitat_Quality_Data_Missing.xlsx
+++ b/Output/Habitat_Quality_Data_Missing.xlsx
@@ -11734,7 +11734,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Upper White Pine Reach Assessment</t>
         </is>
       </c>
     </row>
@@ -17443,11 +17443,6 @@
           <t>Upper Twisp River</t>
         </is>
       </c>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="E666" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17468,11 +17463,6 @@
       <c r="C667" t="inlineStr">
         <is>
           <t>Upper Twisp River</t>
-        </is>
-      </c>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">

--- a/Output/Habitat_Quality_Data_Missing.xlsx
+++ b/Output/Habitat_Quality_Data_Missing.xlsx
@@ -402,12 +402,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -429,12 +429,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -508,6 +508,11 @@
           <t>Andrews Creek</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -532,12 +537,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -559,12 +564,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -586,12 +591,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -613,12 +618,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -640,12 +645,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -908,6 +913,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -930,6 +940,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -952,6 +967,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -974,6 +994,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -996,6 +1021,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1018,6 +1048,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1040,6 +1075,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1062,6 +1102,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1084,6 +1129,11 @@
           <t>Lower Beaver Creek</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1106,6 +1156,11 @@
           <t>Upper Beaver Creek</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1128,6 +1183,11 @@
           <t>Upper Beaver Creek</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Beaver Creek Reach Assessment</t>
@@ -1584,12 +1644,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -1609,6 +1669,11 @@
           <t>Boulder Creek</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -1631,6 +1696,11 @@
           <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2031,6 +2101,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -2107,6 +2182,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2129,6 +2209,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2151,6 +2236,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2173,6 +2263,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2195,6 +2290,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2217,6 +2317,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2239,6 +2344,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -2261,6 +2371,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -2283,6 +2398,11 @@
           <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -2386,6 +2506,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2408,6 +2533,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2430,6 +2560,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2452,6 +2587,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2474,6 +2614,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2496,6 +2641,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2518,6 +2668,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2540,6 +2695,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2562,6 +2722,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2584,6 +2749,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2606,6 +2776,11 @@
           <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>Chewuch River Reach Assessment</t>
@@ -2628,6 +2803,11 @@
           <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -2650,6 +2830,11 @@
           <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -2672,6 +2857,11 @@
           <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>Methow Level 2 Survey</t>
@@ -2694,6 +2884,11 @@
           <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>Methow Level 2 Survey</t>
@@ -2716,6 +2911,11 @@
           <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>Methow Level 2 Survey</t>
@@ -2848,12 +3048,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -3035,6 +3235,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -3057,6 +3262,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -3079,6 +3289,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -3101,6 +3316,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -3123,6 +3343,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -3145,6 +3370,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -3167,6 +3397,11 @@
           <t>Lower Chiwawa River</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -4107,6 +4342,11 @@
           <t>Eagle Creek (Methow)</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -4129,6 +4369,11 @@
           <t>Eagle Creek (Methow)</t>
         </is>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -4556,6 +4801,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4578,6 +4828,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4600,6 +4855,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4622,6 +4882,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4644,6 +4909,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4666,6 +4936,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4688,6 +4963,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4710,6 +4990,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4732,6 +5017,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4754,6 +5044,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -4830,6 +5125,11 @@
           <t>Entiat River-Mills Creek</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>Lower Entiat Reach Assessment</t>
@@ -4852,6 +5152,11 @@
           <t>Entiat River-Mills Creek</t>
         </is>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>Lower Entiat Reach Assessment</t>
@@ -4874,6 +5179,11 @@
           <t>Entiat River-Mills Creek</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>Lower Entiat Reach Assessment</t>
@@ -4896,6 +5206,11 @@
           <t>Entiat River-Mills Creek</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>Lower Entiat Reach Assessment</t>
@@ -4918,6 +5233,11 @@
           <t>Entiat River-Mills Creek</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>Lower Entiat Reach Assessment</t>
@@ -5102,6 +5422,11 @@
           <t>Entiat River-Potato Creek</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>Entiat Gray Reach Assessment</t>
@@ -5124,6 +5449,11 @@
           <t>Entiat River-Potato Creek</t>
         </is>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>Preston Reach Assessment, Stormy Reach Assessment</t>
@@ -5146,6 +5476,11 @@
           <t>Entiat River-Potato Creek</t>
         </is>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>Preston Reach Assessment, Stormy Reach Assessment</t>
@@ -5168,6 +5503,11 @@
           <t>Entiat River-Potato Creek</t>
         </is>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>Preston Reach Assessment, Stormy Reach Assessment</t>
@@ -5190,6 +5530,11 @@
           <t>Entiat River-Preston Creek</t>
         </is>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>Preston Reach Assessment, Stormy Reach Assessment</t>
@@ -5212,6 +5557,11 @@
           <t>Entiat River-Preston Creek</t>
         </is>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>Preston Reach Assessment, Stormy Reach Assessment</t>
@@ -5234,6 +5584,11 @@
           <t>Entiat River-Preston Creek</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -5256,6 +5611,11 @@
           <t>Entiat River-Preston Creek</t>
         </is>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -5278,6 +5638,11 @@
           <t>Entiat River-Lake Creek</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>Upper Stillwaters Reach Assessment</t>
@@ -7462,12 +7827,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7854,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7881,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7543,12 +7908,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7570,12 +7935,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7962,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7624,12 +7989,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7651,12 +8016,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7678,12 +8043,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -7784,6 +8149,11 @@
           <t>Lake Creek (Methow)</t>
         </is>
       </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -7806,6 +8176,11 @@
           <t>Lake Creek (Methow)</t>
         </is>
       </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E290" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -8449,6 +8824,11 @@
           <t>Little Bridge Creek</t>
         </is>
       </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E314" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -8471,6 +8851,11 @@
           <t>Little Bridge Creek</t>
         </is>
       </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -8493,6 +8878,11 @@
           <t>Little Bridge Creek</t>
         </is>
       </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E316" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -8515,6 +8905,11 @@
           <t>Little Bridge Creek</t>
         </is>
       </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E317" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -8537,6 +8932,11 @@
           <t>Little Bridge Creek</t>
         </is>
       </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E318" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -8667,6 +9067,11 @@
           <t>Lower Little Wenatchee River</t>
         </is>
       </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E323" t="inlineStr">
         <is>
           <t>Wenatchee Ranger River District Survey</t>
@@ -8689,6 +9094,11 @@
           <t>Lower Little Wenatchee River</t>
         </is>
       </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E324" t="inlineStr">
         <is>
           <t>Wenatchee Ranger River District Survey</t>
@@ -8711,6 +9121,11 @@
           <t>Lower Little Wenatchee River</t>
         </is>
       </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr">
         <is>
           <t>Wenatchee Ranger River District Survey</t>
@@ -8733,6 +9148,11 @@
           <t>Lower Little Wenatchee River</t>
         </is>
       </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E326" t="inlineStr">
         <is>
           <t>Wenatchee Ranger River District Survey</t>
@@ -9135,12 +9555,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -9162,12 +9582,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9609,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -9214,6 +9634,11 @@
           <t>Lower Mad River</t>
         </is>
       </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr">
         <is>
           <t>Lower Mad River Reach Assessment</t>
@@ -9236,6 +9661,11 @@
           <t>Lower Mad River</t>
         </is>
       </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr">
         <is>
           <t>Lower Mad River Reach Assessment</t>
@@ -9258,6 +9688,11 @@
           <t>Lower Mad River</t>
         </is>
       </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E346" t="inlineStr">
         <is>
           <t>Lower Mad River Reach Assessment</t>
@@ -9280,6 +9715,11 @@
           <t>Lower Mad River</t>
         </is>
       </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E347" t="inlineStr">
         <is>
           <t>Lower Mad River Reach Assessment</t>
@@ -9869,6 +10309,11 @@
           <t>Methow River-Alta Coulee</t>
         </is>
       </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E369" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -9891,6 +10336,11 @@
           <t>Methow River-Alta Coulee</t>
         </is>
       </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E370" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -9913,6 +10363,11 @@
           <t>Methow River-Alta Coulee</t>
         </is>
       </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E371" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -9935,6 +10390,11 @@
           <t>Methow River-Alta Coulee</t>
         </is>
       </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E372" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -9957,6 +10417,11 @@
           <t>Methow River-Alta Coulee</t>
         </is>
       </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E373" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -9979,6 +10444,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E374" t="inlineStr">
         <is>
           <t>Big Valley Reach Assessment, Winthrop Area Reach Assessment</t>
@@ -10001,6 +10471,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E375" t="inlineStr">
         <is>
           <t>Big Valley Reach Assessment</t>
@@ -10023,6 +10498,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E376" t="inlineStr">
         <is>
           <t>Big Valley Reach Assessment</t>
@@ -10045,6 +10525,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E377" t="inlineStr">
         <is>
           <t>Big Valley Reach Assessment</t>
@@ -10067,6 +10552,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E378" t="inlineStr">
         <is>
           <t>Big Valley Reach Assessment</t>
@@ -10089,6 +10579,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E379" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10111,6 +10606,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E380" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10133,6 +10633,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E381" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10155,6 +10660,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E382" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10177,6 +10687,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E383" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10199,6 +10714,11 @@
           <t>Methow River-Fawn Creek</t>
         </is>
       </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E384" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10221,6 +10741,11 @@
           <t>Methow River-McFarland Creek</t>
         </is>
       </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E385" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10243,6 +10768,11 @@
           <t>Methow River-McFarland Creek</t>
         </is>
       </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E386" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10265,6 +10795,11 @@
           <t>Methow River-McFarland Creek</t>
         </is>
       </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E387" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10287,6 +10822,11 @@
           <t>Methow River-McFarland Creek</t>
         </is>
       </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E388" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10309,6 +10849,11 @@
           <t>Methow River-McFarland Creek</t>
         </is>
       </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E389" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10331,6 +10876,11 @@
           <t>Methow River-McFarland Creek</t>
         </is>
       </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E390" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10353,6 +10903,11 @@
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E391" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10375,6 +10930,11 @@
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10397,6 +10957,11 @@
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E393" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10419,6 +10984,11 @@
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10441,6 +11011,11 @@
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E395" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment, Methow Level 2</t>
@@ -10463,6 +11038,11 @@
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E396" t="inlineStr">
         <is>
           <t>Upper Methow Reach Assessment</t>
@@ -10485,6 +11065,11 @@
           <t>Methow River-Texas Creek</t>
         </is>
       </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E397" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10507,6 +11092,11 @@
           <t>Methow River-Texas Creek</t>
         </is>
       </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E398" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10529,6 +11119,11 @@
           <t>Methow River-Texas Creek</t>
         </is>
       </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E399" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10551,6 +11146,11 @@
           <t>Methow River-Texas Creek</t>
         </is>
       </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E400" t="inlineStr">
         <is>
           <t>Lower Methow River Reach Assessment</t>
@@ -10573,6 +11173,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E401" t="inlineStr">
         <is>
           <t>Middle Methow Reach Assessment</t>
@@ -10595,6 +11200,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E402" t="inlineStr">
         <is>
           <t>Middle Methow Reach Assessment</t>
@@ -10617,6 +11227,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E403" t="inlineStr">
         <is>
           <t>Middle Methow Reach Assessment</t>
@@ -10639,6 +11254,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E404" t="inlineStr">
         <is>
           <t>Middle Methow Reach Assessment</t>
@@ -10661,6 +11281,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E405" t="inlineStr">
         <is>
           <t>Middle Methow Reach Assessment</t>
@@ -10683,6 +11308,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E406" t="inlineStr">
         <is>
           <t>Middle Methow Reach Assessment</t>
@@ -10705,6 +11335,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E407" t="inlineStr">
         <is>
           <t>Winthrop Area Reach Assessment</t>
@@ -10727,6 +11362,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E408" t="inlineStr">
         <is>
           <t>Winthrop Area Reach Assessment</t>
@@ -10749,6 +11389,11 @@
           <t>Methow River-Thompson Creek</t>
         </is>
       </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E409" t="inlineStr">
         <is>
           <t>Winthrop Area Reach Assessment</t>
@@ -11392,6 +12037,11 @@
           <t>Napeequa River</t>
         </is>
       </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E433" t="inlineStr">
         <is>
           <t>Wenatchee Ranger River District Survey</t>
@@ -11441,6 +12091,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E435" t="inlineStr">
         <is>
           <t>Lower Nason Reach Assessment</t>
@@ -11463,6 +12118,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E436" t="inlineStr">
         <is>
           <t>Lower Nason Reach Assessment</t>
@@ -11485,6 +12145,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E437" t="inlineStr">
         <is>
           <t>Lower Nason Reach Assessment</t>
@@ -11507,6 +12172,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E438" t="inlineStr">
         <is>
           <t>Kahler Creek Reach Assessment</t>
@@ -11529,6 +12199,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E439" t="inlineStr">
         <is>
           <t>Kahler Creek Reach Assessment</t>
@@ -11551,6 +12226,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E440" t="inlineStr">
         <is>
           <t>Kahler Creek Reach Assessment</t>
@@ -11573,6 +12253,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E441" t="inlineStr">
         <is>
           <t>Kahler Creek Reach Assessment</t>
@@ -11622,6 +12307,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E443" t="inlineStr">
         <is>
           <t>Lower White Pine Reach Assessment</t>
@@ -11644,6 +12334,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E444" t="inlineStr">
         <is>
           <t>Lower White Pine Reach Assessment</t>
@@ -11666,6 +12361,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E445" t="inlineStr">
         <is>
           <t>Nason Creek Habitat Survey Report (USFS)</t>
@@ -11688,6 +12388,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E446" t="inlineStr">
         <is>
           <t>Upper White Pine Reach Assessment</t>
@@ -11710,6 +12415,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E447" t="inlineStr">
         <is>
           <t>Upper White Pine Reach Assessment</t>
@@ -11732,6 +12442,11 @@
           <t>Lower Nason Creek</t>
         </is>
       </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E448" t="inlineStr">
         <is>
           <t>Upper White Pine Reach Assessment</t>
@@ -11945,12 +12660,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -11972,12 +12687,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -11999,12 +12714,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12026,12 +12741,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12053,12 +12768,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12078,6 +12793,11 @@
           <t>Twisp River Headwaters</t>
         </is>
       </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E461" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -12129,12 +12849,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12156,12 +12876,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12183,12 +12903,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12210,12 +12930,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12237,12 +12957,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12264,12 +12984,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12291,12 +13011,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12318,12 +13038,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12345,12 +13065,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12372,12 +13092,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12399,12 +13119,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12426,12 +13146,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12453,12 +13173,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12480,12 +13200,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12507,12 +13227,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12534,12 +13254,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12561,12 +13281,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12588,12 +13308,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12615,12 +13335,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12642,12 +13362,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12669,12 +13389,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12696,12 +13416,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12723,12 +13443,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12750,12 +13470,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12777,12 +13497,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12804,12 +13524,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12831,12 +13551,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12858,12 +13578,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12885,12 +13605,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12912,12 +13632,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12939,12 +13659,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12966,12 +13686,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -12993,12 +13713,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13020,12 +13740,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13047,12 +13767,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13074,12 +13794,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13101,12 +13821,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13128,12 +13848,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13155,12 +13875,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13182,12 +13902,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13209,12 +13929,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13236,12 +13956,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13263,12 +13983,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13290,12 +14010,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13317,12 +14037,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13344,12 +14064,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13371,12 +14091,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13398,12 +14118,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13425,12 +14145,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13452,12 +14172,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13479,12 +14199,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13506,12 +14226,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13533,12 +14253,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13560,12 +14280,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13587,12 +14307,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13614,12 +14334,12 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13641,12 +14361,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13668,12 +14388,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13695,12 +14415,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13722,12 +14442,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13749,12 +14469,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13776,12 +14496,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13803,12 +14523,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13830,12 +14550,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13857,12 +14577,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13884,12 +14604,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -13963,6 +14683,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E531" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -13985,6 +14710,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E532" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14007,6 +14737,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14029,6 +14764,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E534" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14051,6 +14791,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E535" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14073,6 +14818,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E536" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14095,6 +14845,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E537" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14117,6 +14872,11 @@
           <t>Lower Peshastin Creek</t>
         </is>
       </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E538" t="inlineStr">
         <is>
           <t>Lower Peshastin Creek Reach Assessment</t>
@@ -14814,6 +15574,11 @@
           <t>Upper Twisp River</t>
         </is>
       </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E564" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -15243,12 +16008,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15270,12 +16035,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15297,12 +16062,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15324,12 +16089,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15351,12 +16116,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15378,12 +16143,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15405,12 +16170,12 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15432,12 +16197,12 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15459,12 +16224,12 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15486,12 +16251,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15513,12 +16278,12 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15540,12 +16305,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15567,12 +16332,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15729,12 +16494,12 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15756,12 +16521,12 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15783,12 +16548,12 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15810,12 +16575,12 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15837,12 +16602,12 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15864,12 +16629,12 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -15891,12 +16656,12 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16159,6 +16924,11 @@
           <t>South Creek</t>
         </is>
       </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E614" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -16210,12 +16980,12 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16237,12 +17007,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16426,12 +17196,12 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16642,12 +17412,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16669,12 +17439,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16696,12 +17466,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16912,12 +17682,12 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -16937,6 +17707,11 @@
           <t>Twenty Mile Creek</t>
         </is>
       </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E643" t="inlineStr">
         <is>
           <t>Upper Chewuch Reach Assessment</t>
@@ -16959,6 +17734,11 @@
           <t>Twisp River Headwaters</t>
         </is>
       </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E644" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -16981,6 +17761,11 @@
           <t>Twisp River Headwaters</t>
         </is>
       </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17003,6 +17788,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17025,6 +17815,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17047,6 +17842,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17069,6 +17869,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E649" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17091,6 +17896,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E650" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17113,6 +17923,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E651" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17135,6 +17950,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr">
         <is>
           <t>Lower Twisp Reach Assessment</t>
@@ -17157,6 +17977,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E653" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17179,6 +18004,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E654" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17201,6 +18031,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E655" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17223,6 +18058,11 @@
           <t>Lower Twisp River</t>
         </is>
       </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E656" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17245,6 +18085,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E657" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17267,6 +18112,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E658" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17289,6 +18139,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E659" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17311,6 +18166,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E660" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17333,6 +18193,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E661" t="inlineStr">
         <is>
           <t>Middle Twisp Reach Assessment</t>
@@ -17355,6 +18220,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E662" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17377,6 +18247,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E663" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17399,6 +18274,11 @@
           <t>Middle Twisp River</t>
         </is>
       </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E664" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17421,6 +18301,11 @@
           <t>Upper Twisp River</t>
         </is>
       </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E665" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17443,6 +18328,11 @@
           <t>Upper Twisp River</t>
         </is>
       </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E666" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17465,6 +18355,11 @@
           <t>Upper Twisp River</t>
         </is>
       </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E667" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17487,6 +18382,11 @@
           <t>Twisp River Headwaters</t>
         </is>
       </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E668" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17538,12 +18438,12 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -17565,12 +18465,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -17592,12 +18492,12 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -17617,6 +18517,11 @@
           <t>War Creek</t>
         </is>
       </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E673" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17639,6 +18544,11 @@
           <t>War Creek</t>
         </is>
       </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E674" t="inlineStr">
         <is>
           <t>Upper Twisp River and Tributaries Habitat Assessment</t>
@@ -17661,6 +18571,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E675" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -17683,6 +18598,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E676" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -17705,6 +18625,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E677" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -17727,6 +18652,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E678" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys</t>
@@ -17749,6 +18679,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E679" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17771,6 +18706,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E680" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17793,6 +18733,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E681" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17815,6 +18760,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E682" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17837,6 +18787,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E683" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17859,6 +18814,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E684" t="inlineStr">
         <is>
           <t>Upper Wenatchee Pilot Project Level 2 Surveys, Upper Wenatchee Reach Assessment</t>
@@ -17881,6 +18841,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E685" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17903,6 +18868,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E686" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17925,6 +18895,11 @@
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E687" t="inlineStr">
         <is>
           <t>Upper Wenatchee Reach Assessment</t>
@@ -17947,6 +18922,11 @@
           <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E688" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -17969,6 +18949,11 @@
           <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E689" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -17991,6 +18976,11 @@
           <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E690" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18013,6 +19003,11 @@
           <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E691" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18035,6 +19030,11 @@
           <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E692" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18057,6 +19057,11 @@
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E693" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18079,6 +19084,11 @@
           <t>Wenatchee River-Nahahum Canyon</t>
         </is>
       </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E694" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18101,6 +19111,11 @@
           <t>Wenatchee River-Nahahum Canyon</t>
         </is>
       </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E695" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18123,6 +19138,11 @@
           <t>Wenatchee River-Nahahum Canyon</t>
         </is>
       </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E696" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18145,6 +19165,11 @@
           <t>Wenatchee River-Nahahum Canyon</t>
         </is>
       </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E697" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18167,6 +19192,11 @@
           <t>Wenatchee River-Nahahum Canyon</t>
         </is>
       </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E698" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18189,6 +19219,11 @@
           <t>Wenatchee River-Nahahum Canyon</t>
         </is>
       </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E699" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18211,6 +19246,11 @@
           <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E700" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18233,6 +19273,11 @@
           <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E701" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18255,6 +19300,11 @@
           <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E702" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18277,6 +19327,11 @@
           <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E703" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18299,6 +19354,11 @@
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E704" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18321,6 +19381,11 @@
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E705" t="inlineStr">
         <is>
           <t>Lower Wenatchee Reach Assessment</t>
@@ -18721,6 +19786,11 @@
           <t>Lower White River</t>
         </is>
       </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E720" t="inlineStr">
         <is>
           <t>Wenatchee Ranger River District Survey</t>
@@ -18826,12 +19896,12 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -18853,12 +19923,12 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -18880,12 +19950,12 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -18907,12 +19977,12 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -18934,12 +20004,12 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
@@ -18986,6 +20056,11 @@
           <t>Wolf Creek</t>
         </is>
       </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E730" t="inlineStr">
         <is>
           <t>Wolf Creek Reach Assessment</t>
@@ -19008,6 +20083,11 @@
           <t>Wolf Creek</t>
         </is>
       </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E731" t="inlineStr">
         <is>
           <t>Wolf Creek Reach Assessment</t>
@@ -19030,6 +20110,11 @@
           <t>Wolf Creek</t>
         </is>
       </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
+        </is>
+      </c>
       <c r="E732" t="inlineStr">
         <is>
           <t>Wolf Creek Reach Assessment</t>
@@ -19050,6 +20135,11 @@
       <c r="C733" t="inlineStr">
         <is>
           <t>Wolf Creek</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>no data are missing</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">

--- a/Output/Habitat_Quality_Data_Missing.xlsx
+++ b/Output/Habitat_Quality_Data_Missing.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E520"/>
+  <dimension ref="A1:E521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,12 +397,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aeneas Creek Okanogan</t>
+          <t>Aeneas Creek-DS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -424,12 +424,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aeneas Creek Okanogan</t>
+          <t>Aeneas Creek-DS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Coarse Substrate, Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Riparian- Canopy Cover</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>OBMEP Sed. Surveys (Methow)</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lower Bonaparte Creek</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Methow Level 2 Survey</t>
+          <t>Methow Level 2 Survey, OBMEP Sed. Surveys (Methow)</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Methow Level 2 Survey</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1828,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1860,7 +1855,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1887,7 +1882,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1914,7 +1909,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1941,7 +1936,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1963,12 +1958,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Chiliwist Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2022,7 +2017,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2049,7 +2044,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2076,7 +2071,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2103,7 +2098,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2130,7 +2125,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2184,7 +2179,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2211,7 +2206,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2238,7 +2233,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2265,7 +2260,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2292,7 +2287,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2319,7 +2314,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2346,7 +2341,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2373,7 +2368,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2400,7 +2395,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2427,7 +2422,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2454,7 +2449,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2481,7 +2476,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2508,7 +2503,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2535,7 +2530,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2562,7 +2557,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2589,7 +2584,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2616,7 +2611,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2643,7 +2638,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2724,7 +2719,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2751,7 +2746,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2778,7 +2773,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2805,7 +2800,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2832,7 +2827,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2859,7 +2854,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2886,7 +2881,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2913,7 +2908,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2940,7 +2935,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2967,7 +2962,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2994,7 +2989,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3021,7 +3016,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3048,7 +3043,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3075,7 +3070,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3102,7 +3097,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3129,7 +3124,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3156,7 +3151,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3183,7 +3178,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3210,7 +3205,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3237,7 +3232,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3264,7 +3259,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3291,7 +3286,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3318,7 +3313,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3345,7 +3340,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3372,7 +3367,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3399,7 +3394,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3426,7 +3421,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3453,7 +3448,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3480,7 +3475,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3696,7 +3691,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3750,7 +3745,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3777,7 +3772,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3804,7 +3799,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3831,7 +3826,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3858,7 +3853,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3885,7 +3880,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3912,7 +3907,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3939,7 +3934,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3966,7 +3961,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3993,7 +3988,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4020,7 +4015,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4047,7 +4042,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4074,7 +4069,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4101,7 +4096,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4128,7 +4123,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4155,7 +4150,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4182,7 +4177,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4209,7 +4204,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4236,7 +4231,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4263,7 +4258,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4290,7 +4285,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4344,7 +4339,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4371,7 +4366,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4398,7 +4393,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4425,7 +4420,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4452,7 +4447,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4479,7 +4474,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4506,7 +4501,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4533,7 +4528,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4560,7 +4555,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4587,7 +4582,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4614,7 +4609,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4641,7 +4636,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4668,7 +4663,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4695,7 +4690,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4722,7 +4717,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4749,7 +4744,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4776,7 +4771,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4803,7 +4798,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4830,7 +4825,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4857,7 +4852,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4911,7 +4906,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4938,7 +4933,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4965,7 +4960,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4992,7 +4987,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5019,7 +5014,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5046,7 +5041,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5289,7 +5284,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5316,7 +5311,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5343,7 +5338,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5370,7 +5365,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5397,7 +5392,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5424,7 +5419,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5451,7 +5446,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5478,7 +5473,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5505,7 +5500,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5532,7 +5527,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5559,7 +5554,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5586,7 +5581,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5613,7 +5608,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5640,7 +5635,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5667,7 +5662,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5694,7 +5689,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5748,7 +5743,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5775,7 +5770,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5802,7 +5797,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5829,7 +5824,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5856,7 +5851,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5883,7 +5878,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5910,7 +5905,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5937,7 +5932,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5964,7 +5959,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5991,7 +5986,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6018,7 +6013,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6045,7 +6040,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6072,7 +6067,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6099,7 +6094,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6126,7 +6121,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6153,7 +6148,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6180,7 +6175,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6207,7 +6202,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6234,7 +6229,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6261,7 +6256,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6288,7 +6283,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6315,7 +6310,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6342,7 +6337,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6369,7 +6364,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6396,7 +6391,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6423,7 +6418,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6450,7 +6445,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Bank Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6477,7 +6472,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6504,7 +6499,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6531,7 +6526,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6558,7 +6553,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6585,7 +6580,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6612,12 +6607,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Methow Level 2 Survey</t>
+          <t>Methow Level 2 Survey, OBMEP Sed. Surveys (Methow)</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6634,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6666,7 +6661,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6693,7 +6688,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6720,7 +6715,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6747,7 +6742,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6801,7 +6796,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6828,7 +6823,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6855,7 +6850,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6936,7 +6931,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6990,7 +6985,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7017,7 +7012,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7044,7 +7039,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7071,7 +7066,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7098,7 +7093,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7125,7 +7120,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7152,7 +7147,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7179,7 +7174,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7206,7 +7201,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7233,7 +7228,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7260,7 +7255,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -7282,12 +7277,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -7309,12 +7304,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7336,12 +7331,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7557,7 +7552,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7584,7 +7579,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7611,7 +7606,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7638,7 +7633,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7665,7 +7660,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7935,7 +7930,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Cover- Wood, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -7962,7 +7957,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -7989,7 +7984,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -8016,7 +8011,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -8043,7 +8038,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -8070,7 +8065,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -8097,7 +8092,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -8124,7 +8119,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -8151,7 +8146,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -8178,7 +8173,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -8421,7 +8416,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -8448,7 +8443,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -8475,7 +8470,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8502,7 +8497,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -8529,7 +8524,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8583,19 +8578,19 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Channel Stability</t>
+          <t>Channel Stability, Coarse Substrate</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Lower White Pine Reach Assessment</t>
+          <t>Nason Creek Habitat Assessment</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8610,19 +8605,19 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Riparian- Canopy Cover</t>
+          <t>Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Upper Nason Creek Reach Assessment</t>
+          <t>Upper White Pine Reach Assessment</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Nason Creek Upper 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -8632,7 +8627,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Upper Nason Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8649,7 +8644,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Nason Creek Upper 02</t>
+          <t>Nason Creek Upper 01</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8664,19 +8659,19 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>Upper Nason Creek Reach Assessment</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Nason Creek Upper 03</t>
+          <t>Nason Creek Upper 02</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8691,7 +8686,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8703,7 +8698,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Nason Creek Upper 04</t>
+          <t>Nason Creek Upper 03</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8718,7 +8713,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -8730,7 +8725,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Nason Creek Upper 05</t>
+          <t>Nason Creek Upper 04</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -8745,7 +8740,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8757,7 +8752,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Nason Creek Upper 06</t>
+          <t>Nason Creek Upper 05</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8772,7 +8767,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -8784,34 +8779,34 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ninemile 16-1</t>
+          <t>Nason Creek Upper 06</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Okanogan River-Nine Mile Creek</t>
+          <t>Upper Nason Creek</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Ninemile 16-2</t>
+          <t>Ninemile 16-1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -8821,12 +8816,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Okanogan River-Nine Mile Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -8838,7 +8833,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Ninemile 16-3</t>
+          <t>Ninemile 16-2</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -8848,12 +8843,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Okanogan River-Nine Mile Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -8865,7 +8860,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Ninemile 16-4</t>
+          <t>Ninemile 16-3</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -8875,12 +8870,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Okanogan River-Nine Mile Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8892,7 +8887,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Ninemile 16-5</t>
+          <t>Ninemile 16-4</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -8902,12 +8897,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Okanogan River-Nine Mile Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -8919,61 +8914,61 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>North Shaser Creek 01</t>
+          <t>Ninemile 16-5</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Upper Peshastin Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Okanagan 16-48</t>
+          <t>North Shaser Creek 01</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Okanogan-Haynes Creek North</t>
+          <t>Upper Peshastin Creek</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Okanogan 16-1</t>
+          <t>Okanagan 16-48</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -8983,12 +8978,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Haynes Creek North</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -9000,7 +8995,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Okanogan 16-10</t>
+          <t>Okanogan 16-1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -9010,12 +9005,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -9027,7 +9022,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Okanogan 16-11</t>
+          <t>Okanogan 16-10</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -9037,12 +9032,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -9054,7 +9049,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Okanogan 16-12</t>
+          <t>Okanogan 16-11</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -9064,12 +9059,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -9081,7 +9076,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Okanogan 16-13</t>
+          <t>Okanogan 16-12</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -9091,12 +9086,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -9108,7 +9103,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Okanogan 16-14</t>
+          <t>Okanogan 16-13</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -9118,12 +9113,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -9135,7 +9130,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Okanogan 16-15</t>
+          <t>Okanogan 16-14</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -9145,12 +9140,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Coarse Substrate, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -9162,7 +9157,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Okanogan 16-16</t>
+          <t>Okanogan 16-15</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -9172,12 +9167,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -9189,7 +9184,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Okanogan 16-17</t>
+          <t>Okanogan 16-16</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -9199,12 +9194,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -9216,7 +9211,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Okanogan 16-18</t>
+          <t>Okanogan 16-17</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9226,12 +9221,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -9243,7 +9238,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Okanogan 16-19</t>
+          <t>Okanogan 16-18</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -9253,12 +9248,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -9270,7 +9265,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Okanogan 16-2</t>
+          <t>Okanogan 16-19</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -9280,12 +9275,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -9297,7 +9292,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Okanogan 16-20</t>
+          <t>Okanogan 16-2</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -9307,12 +9302,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -9324,7 +9319,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Okanogan 16-21</t>
+          <t>Okanogan 16-20</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -9334,12 +9329,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -9351,7 +9346,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Okanogan 16-22</t>
+          <t>Okanogan 16-21</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -9361,12 +9356,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -9378,7 +9373,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Okanogan 16-23</t>
+          <t>Okanogan 16-22</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -9388,12 +9383,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Okanogan River-Swipkin Canyon</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -9405,7 +9400,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Okanogan 16-24</t>
+          <t>Okanogan 16-23</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -9415,12 +9410,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Okanogan River-Alkali Lake</t>
+          <t>Okanogan-Swipkin Canyon</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -9432,7 +9427,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Okanogan 16-25</t>
+          <t>Okanogan 16-24</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -9442,12 +9437,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Okanogan River-Alkali Lake</t>
+          <t>Okanogan-Alkali Lake</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -9459,7 +9454,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Okanogan 16-26</t>
+          <t>Okanogan 16-25</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -9469,12 +9464,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Alkali Lake</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -9486,7 +9481,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Okanogan 16-27</t>
+          <t>Okanogan 16-26</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -9496,12 +9491,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -9513,7 +9508,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Okanogan 16-28</t>
+          <t>Okanogan 16-27</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -9523,12 +9518,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -9540,7 +9535,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Okanogan 16-29</t>
+          <t>Okanogan 16-28</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -9550,12 +9545,12 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -9567,7 +9562,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Okanogan 16-3</t>
+          <t>Okanogan 16-29</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -9577,12 +9572,12 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -9594,7 +9589,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Okanogan 16-30</t>
+          <t>Okanogan 16-3</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -9604,12 +9599,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -9621,7 +9616,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Okanogan 16-31</t>
+          <t>Okanogan 16-30</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -9631,12 +9626,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -9648,7 +9643,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Okanogan 16-32</t>
+          <t>Okanogan 16-31</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -9658,12 +9653,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -9675,7 +9670,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Okanogan 16-33</t>
+          <t>Okanogan 16-32</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -9685,12 +9680,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Okanogan River-Whitestone Coulee</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -9702,7 +9697,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Okanogan 16-34</t>
+          <t>Okanogan 16-33</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -9712,12 +9707,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Whitestone Coulee</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -9729,7 +9724,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Okanogan 16-35</t>
+          <t>Okanogan 16-34</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -9739,12 +9734,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Coarse Substrate, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -9756,7 +9751,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Okanogan 16-36</t>
+          <t>Okanogan 16-35</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -9766,12 +9761,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -9783,7 +9778,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Okanogan 16-37</t>
+          <t>Okanogan 16-36</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -9793,12 +9788,12 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -9810,7 +9805,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Okanogan 16-38</t>
+          <t>Okanogan 16-37</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -9820,12 +9815,12 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -9837,7 +9832,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Okanogan 16-39</t>
+          <t>Okanogan 16-38</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -9847,12 +9842,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -9864,7 +9859,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Okanogan 16-4</t>
+          <t>Okanogan 16-39</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -9874,12 +9869,12 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -9891,7 +9886,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Okanogan 16-40</t>
+          <t>Okanogan 16-4</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -9901,12 +9896,12 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -9918,7 +9913,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Okanogan 16-41</t>
+          <t>Okanogan 16-40</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -9928,12 +9923,12 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -9945,7 +9940,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Okanogan 16-42</t>
+          <t>Okanogan 16-41</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -9955,12 +9950,12 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -9972,7 +9967,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Okanogan 16-43</t>
+          <t>Okanogan 16-42</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -9982,12 +9977,12 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Okanogan-Haynes Creek South</t>
+          <t>Okanogan-Mosquito Creek</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -9999,7 +9994,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Okanogan 16-44</t>
+          <t>Okanogan 16-43</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -10014,7 +10009,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -10026,7 +10021,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Okanogan 16-45</t>
+          <t>Okanogan 16-44</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -10041,7 +10036,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Coarse Substrate, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -10053,7 +10048,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Okanogan 16-46</t>
+          <t>Okanogan 16-45</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -10063,12 +10058,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Okanogan-Haynes Creek North</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -10080,7 +10075,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Okanogan 16-47</t>
+          <t>Okanogan 16-46</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -10095,7 +10090,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -10107,7 +10102,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Okanogan 16-5</t>
+          <t>Okanogan 16-47</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -10117,12 +10112,12 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Haynes Creek North</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -10134,7 +10129,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Okanogan 16-6</t>
+          <t>Okanogan 16-5</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -10144,12 +10139,12 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -10161,7 +10156,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Okanogan 16-7</t>
+          <t>Okanogan 16-6</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -10171,12 +10166,12 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Okanogan River-Davis Canyon</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -10188,7 +10183,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Okanogan 16-8</t>
+          <t>Okanogan 16-7</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -10198,12 +10193,12 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -10215,7 +10210,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Okanogan 16-9</t>
+          <t>Okanogan 16-8</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -10225,12 +10220,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Okanogan River-Tallant Creek</t>
+          <t>Okanogan-Davis Canyon</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -10242,7 +10237,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Okanogan Crosschannel 16-1</t>
+          <t>Okanogan 16-9</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -10252,12 +10247,12 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Okanogan-Talant Creek</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -10269,7 +10264,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Okanogan Crosschannel 16-1</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -10279,12 +10274,12 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Coarse Substrate, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -10296,7 +10291,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Omak 16-10</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -10306,12 +10301,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -10323,7 +10318,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Omak 16-11</t>
+          <t>Omak 16-10</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -10333,12 +10328,12 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Middle Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -10350,7 +10345,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Omak 16-12</t>
+          <t>Omak 16-11</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -10360,12 +10355,12 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Middle Omak Creek</t>
+          <t>Omak Creek-Middle DS</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -10377,7 +10372,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Omak 16-13</t>
+          <t>Omak 16-12</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -10387,12 +10382,12 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Middle Omak Creek</t>
+          <t>Omak Creek-Middle DS</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -10404,7 +10399,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Omak 16-14</t>
+          <t>Omak 16-13</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -10414,12 +10409,12 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Upper Omak Creek</t>
+          <t>Omak Creek-Middle DS</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -10431,7 +10426,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Omak 16-15</t>
+          <t>Omak 16-14</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -10441,12 +10436,12 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Upper Omak Creek</t>
+          <t>Omak Creek-Upper DS</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -10458,7 +10453,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Omak 16-16</t>
+          <t>Omak 16-15</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -10468,12 +10463,12 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Upper Omak Creek</t>
+          <t>Omak Creek-Upper DS</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -10485,7 +10480,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Omak 16-17</t>
+          <t>Omak 16-16</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -10495,12 +10490,12 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Upper Omak Creek</t>
+          <t>Omak Creek-Upper DS</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -10512,7 +10507,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-17</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -10522,12 +10517,12 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Upper DS</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -10539,7 +10534,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -10549,12 +10544,12 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -10566,7 +10561,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -10576,12 +10571,12 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -10593,7 +10588,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -10603,12 +10598,12 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -10620,7 +10615,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -10630,12 +10625,12 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -10647,7 +10642,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -10657,12 +10652,12 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -10674,7 +10669,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -10684,12 +10679,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -10701,7 +10696,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -10711,12 +10706,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -10728,49 +10723,49 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Panther Creek 01</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Panther Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Pearrygin Lake Creek 01</t>
+          <t>Panther Creek 01</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Panther Creek</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -10782,34 +10777,34 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 01</t>
+          <t>Pearrygin Lake Creek 01</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Upper Peshastin Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 02</t>
+          <t>Peshastin Creek Upper 01</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -10824,7 +10819,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -10836,7 +10831,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 03</t>
+          <t>Peshastin Creek Upper 02</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10851,7 +10846,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Side-Channels</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -10863,7 +10858,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 04</t>
+          <t>Peshastin Creek Upper 03</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10878,7 +10873,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -10890,7 +10885,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 05</t>
+          <t>Peshastin Creek Upper 04</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -10905,7 +10900,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -10917,7 +10912,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 06</t>
+          <t>Peshastin Creek Upper 05</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -10932,7 +10927,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -10944,7 +10939,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 07</t>
+          <t>Peshastin Creek Upper 06</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -10959,7 +10954,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -10971,7 +10966,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 08</t>
+          <t>Peshastin Creek Upper 07</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -10986,7 +10981,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -10998,7 +10993,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Peshastin Creek Upper 09</t>
+          <t>Peshastin Creek Upper 08</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -11013,7 +11008,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -11025,7 +11020,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Phelps Creek 01</t>
+          <t>Peshastin Creek Upper 09</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -11035,24 +11030,24 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Phelps Creek</t>
+          <t>Upper Peshastin Creek</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Phelps Creek 02</t>
+          <t>Phelps Creek 01</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -11067,7 +11062,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -11079,22 +11074,22 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Pine Creek 01</t>
+          <t>Phelps Creek 02</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Early Winters Creek</t>
+          <t>Phelps Creek</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -11106,22 +11101,22 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Pole Creek 01</t>
+          <t>Pine Creek 01</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Early Winters Creek</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -11133,22 +11128,22 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Poorman Creek 01</t>
+          <t>Pole Creek 01</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance, Temperature- Adult Holding, Temperature- Adult Spawning, Temperature- Rearing</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -11160,34 +11155,34 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Potato Creek 01</t>
+          <t>Poorman Creek 01</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Entiat Level 2 Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Potato Creek 02</t>
+          <t>Potato Creek 01</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -11202,7 +11197,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -11214,7 +11209,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Potato Creek 03</t>
+          <t>Potato Creek 02</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -11229,7 +11224,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -11241,7 +11236,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Potato Creek 04</t>
+          <t>Potato Creek 03</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -11268,7 +11263,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Potato Creek 05</t>
+          <t>Potato Creek 04</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -11283,7 +11278,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -11295,7 +11290,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Preston Creek 01</t>
+          <t>Potato Creek 05</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -11305,12 +11300,12 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -11322,34 +11317,34 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Prospect Creek 01</t>
+          <t>Preston Creek 01</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Upper Icicle Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Entiat Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Raging Creek 01</t>
+          <t>Prospect Creek 01</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -11359,12 +11354,12 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Middle Chiwawa River</t>
+          <t>Upper Icicle Creek</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -11376,34 +11371,34 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Rainy Creek Methow 01</t>
+          <t>Raging Creek 01</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>South Fork Gold Creek</t>
+          <t>Middle Chiwawa River</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Methow Level 2 Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Rainy Creek Methow 02</t>
+          <t>Rainy Creek Methow 01</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -11418,34 +11413,34 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Methow Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Rainy Creek Wenatchee 01</t>
+          <t>Rainy Creek Methow 02</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Rainy Creek</t>
+          <t>South Fork Gold Creek</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -11457,34 +11452,34 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Roaring Creek Entiat 01</t>
+          <t>Rainy Creek Wenatchee 01</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Roaring Creek</t>
+          <t>Rainy Creek</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Entiat Level 2 Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Roaring Creek Entiat 02</t>
+          <t>Roaring Creek Entiat 01</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -11499,7 +11494,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -11511,7 +11506,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Roaring Creek Entiat 03</t>
+          <t>Roaring Creek Entiat 02</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -11538,7 +11533,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Roaring Creek Entiat 04</t>
+          <t>Roaring Creek Entiat 03</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -11565,7 +11560,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Roaring Creek Entiat 05</t>
+          <t>Roaring Creek Entiat 04</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -11580,19 +11575,19 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Entiat Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Roaring Creek Entiat 06</t>
+          <t>Roaring Creek Entiat 05</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -11607,7 +11602,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -11619,22 +11614,22 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Roaring Creek Nason 01</t>
+          <t>Roaring Creek Entiat 06</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Roaring Creek</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -11646,7 +11641,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Roaring Creek Nason 02</t>
+          <t>Roaring Creek Nason 01</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -11661,7 +11656,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -11673,7 +11668,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Roaring Creek Nason 03</t>
+          <t>Roaring Creek Nason 02</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -11688,7 +11683,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -11700,34 +11695,34 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Robinson Creek 01</t>
+          <t>Roaring Creek Nason 03</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Robinson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Methow Level 2 Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Robinson Creek 02</t>
+          <t>Robinson Creek 01</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -11742,7 +11737,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -11754,34 +11749,34 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Rock Creek 01</t>
+          <t>Robinson Creek 02</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Upper Chiwawa River</t>
+          <t>Robinson Creek</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Methow Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Rock Creek 02</t>
+          <t>Rock Creek 01</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -11791,12 +11786,12 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Rock Creek</t>
+          <t>Upper Chiwawa River</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -11808,7 +11803,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Rock Creek 03</t>
+          <t>Rock Creek 02</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -11823,7 +11818,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -11835,7 +11830,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Ruby Creek 01</t>
+          <t>Rock Creek 03</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -11845,51 +11840,51 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Upper Peshastin Creek</t>
+          <t>Rock Creek</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Ruby Creek 01</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Upper Peshastin Creek</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -11899,12 +11894,12 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -11916,7 +11911,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -11926,12 +11921,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -11943,7 +11938,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -11953,12 +11948,12 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -11970,7 +11965,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -11980,12 +11975,12 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -11997,7 +11992,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -12007,12 +12002,12 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -12024,7 +12019,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -12034,12 +12029,12 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -12051,7 +12046,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -12061,12 +12056,12 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -12078,7 +12073,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -12088,12 +12083,12 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -12105,7 +12100,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -12115,12 +12110,12 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -12132,7 +12127,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -12142,12 +12137,12 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -12159,7 +12154,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -12169,12 +12164,12 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -12186,7 +12181,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -12196,12 +12191,12 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -12213,34 +12208,34 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Sand Creek 01</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Sand Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Sand Creek 02</t>
+          <t>Sand Creek 01</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -12255,7 +12250,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -12267,22 +12262,22 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Scaffold Camp Creek 01</t>
+          <t>Sand Creek 02</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Sand Creek</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -12294,22 +12289,22 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Sears Creek 01</t>
+          <t>Scaffold Camp Creek 01</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -12321,7 +12316,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Seatter Creek 01</t>
+          <t>Scatter Creek 01</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -12336,7 +12331,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -12348,34 +12343,34 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Sears Creek 01</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -12385,12 +12380,12 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -12402,7 +12397,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -12412,12 +12407,12 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -12429,7 +12424,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -12439,12 +12434,12 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -12456,7 +12451,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -12466,12 +12461,12 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -12483,7 +12478,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -12493,12 +12488,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -12510,7 +12505,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Siwash 16-1</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -12520,12 +12515,12 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Lower Siwash Creek</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -12537,34 +12532,34 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Skinney Creek 01</t>
+          <t>Siwash 16-1</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Chiwaukum Creek</t>
+          <t>Siwash Creek-Lower DS</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Cover- Wood, Flow- Scour, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Skinney Creek 02</t>
+          <t>Skinney Creek 01</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -12579,7 +12574,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -12591,7 +12586,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Skinney Creek 03</t>
+          <t>Skinney Creek 02</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -12606,7 +12601,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -12618,7 +12613,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Skinney Creek 04</t>
+          <t>Skinney Creek 03</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -12633,7 +12628,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -12645,22 +12640,22 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Smith Canyon Creek 01</t>
+          <t>Skinney Creek 04</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Libby Creek</t>
+          <t>Chiwaukum Creek</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -12672,7 +12667,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Smith Canyon Creek 02</t>
+          <t>Smith Canyon Creek 01</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -12687,7 +12682,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -12699,7 +12694,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Smith Canyon Creek 03</t>
+          <t>Smith Canyon Creek 02</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -12714,7 +12709,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -12726,7 +12721,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Smith Canyon Creek 04</t>
+          <t>Smith Canyon Creek 03</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -12741,7 +12736,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -12753,7 +12748,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Smith Canyon Creek 05</t>
+          <t>Smith Canyon Creek 04</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -12768,7 +12763,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -12780,22 +12775,22 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Spromberg Canyon 01</t>
+          <t>Smith Canyon Creek 05</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Libby Creek</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -12807,34 +12802,34 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Stapaloop 16-1</t>
+          <t>Spromberg Canyon 01</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Middle Omak Creek</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Stapaloop 16-2</t>
+          <t>Stapaloop 16-1</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -12844,12 +12839,12 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Middle Omak Creek</t>
+          <t>Omak Creek-Middle DS</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -12861,34 +12856,34 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Stormy Creek 01</t>
+          <t>Stapaloop 16-2</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Omak Creek-Middle DS</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Entiat Level 2 Survey</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Stormy Creek 02</t>
+          <t>Stormy Creek 01</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -12903,19 +12898,19 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Entiat Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Stormy Creek 03</t>
+          <t>Stormy Creek 02</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -12930,7 +12925,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -12942,22 +12937,22 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Sunitsch Canyon 01</t>
+          <t>Stormy Creek 03</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Off-Channel- Floodplain, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12969,22 +12964,22 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Swaram Creek 01</t>
+          <t>Sunitsch Canyon 01</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Swaram Creek</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>Bank Stability, Channel Stability, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12996,7 +12991,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Swaram Creek 02</t>
+          <t>Swaram Creek 01</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -13011,7 +13006,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -13023,61 +13018,61 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Swimptkin 16-1</t>
+          <t>Swaram Creek 02</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Middle Omak Creek</t>
+          <t>Swaram Creek</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Tamarack Creek 01</t>
+          <t>Swimptkin 16-1</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Roaring Creek</t>
+          <t>Omak Creek-Middle DS</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Tamarack Creek 02</t>
+          <t>Tamarack Creek 01</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -13092,7 +13087,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -13104,7 +13099,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Tillicum Creek 01</t>
+          <t>Tamarack Creek 02</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -13114,24 +13109,24 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Tillicum Creek</t>
+          <t>Roaring Creek</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Entiat Level 2 Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Tillicum Creek 02</t>
+          <t>Tillicum Creek 01</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -13158,7 +13153,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Tillicum Creek 03</t>
+          <t>Tillicum Creek 02</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -13185,7 +13180,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Tillicum Creek 04</t>
+          <t>Tillicum Creek 03</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -13200,7 +13195,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -13212,7 +13207,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tommy Creek 01</t>
+          <t>Tillicum Creek 04</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -13222,51 +13217,51 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Tillicum Creek</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Entiat Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Tonasket 16-1</t>
+          <t>Tommy Creek 01</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Okanogan River-Nine Mile Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Tonasket 16-1</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -13276,12 +13271,12 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Tonasket Creek</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -13293,7 +13288,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Trail 16-1</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -13303,12 +13298,12 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Upper Omak Creek</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -13320,34 +13315,34 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Tronsen Creek 01</t>
+          <t>Trail 16-1</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Upper Peshastin Creek</t>
+          <t>Omak Creek-Upper DS</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Tronsen Creek 02</t>
+          <t>Tronsen Creek 01</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -13362,7 +13357,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -13374,7 +13369,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Tronsen Creek 03</t>
+          <t>Tronsen Creek 02</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -13389,7 +13384,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -13401,34 +13396,34 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Trout Creek 01</t>
+          <t>Tronsen Creek 03</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>West Fork Methow River</t>
+          <t>Upper Peshastin Creek</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Trout Creek 02</t>
+          <t>Trout Creek 01</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -13443,7 +13438,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -13455,7 +13450,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Trout Creek 03</t>
+          <t>Trout Creek 02</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -13470,7 +13465,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -13482,7 +13477,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Trout Creek 04</t>
+          <t>Trout Creek 03</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -13497,7 +13492,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -13509,88 +13504,88 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Tunk 16-1</t>
+          <t>Trout Creek 04</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Lower Tunk Creek</t>
+          <t>West Fork Methow River</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Tyee Creek 01</t>
+          <t>Tunk 16-1</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Tunk Creek-Lower DS</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Wanacut 16-1</t>
+          <t>Tyee Creek 01</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Wanacut Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Wanacut 16-2</t>
+          <t>Wanacut 16-1</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -13600,12 +13595,12 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Wanacut Creek</t>
+          <t>Wanacut Creek DS</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -13617,7 +13612,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Wanacut 16-3</t>
+          <t>Wanacut 16-2</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -13627,12 +13622,12 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Wanacut Creek</t>
+          <t>Wanacut Creek DS</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -13644,34 +13639,34 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 03</t>
+          <t>Wanacut 16-3</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wanacut Creek DS</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
+          <t>Flow- Summer Base Flow, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 04</t>
+          <t>Wenatchee River Tumwater 03</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -13698,7 +13693,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 05</t>
+          <t>Wenatchee River Tumwater 04</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -13725,7 +13720,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 06</t>
+          <t>Wenatchee River Tumwater 05</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -13752,7 +13747,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 07</t>
+          <t>Wenatchee River Tumwater 06</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -13779,7 +13774,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 08</t>
+          <t>Wenatchee River Tumwater 07</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -13806,22 +13801,22 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Whistling Creek 01</t>
+          <t>Wenatchee River Tumwater 08</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -13833,34 +13828,34 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>White River Lower 01</t>
+          <t>Whistling Creek 01</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>White River Reach Assessment</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>White River Lower 02</t>
+          <t>White River Lower 01</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -13887,7 +13882,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>White River Lower 03</t>
+          <t>White River Lower 02</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -13902,19 +13897,19 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Cover- Wood, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>White River Reach Assessment, Lower Icicle Reach Assessment</t>
+          <t>White River Reach Assessment</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>White River Lower 04</t>
+          <t>White River Lower 03</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -13929,19 +13924,19 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>White River Reach Assessment, Lower Icicle Reach Assessment</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>White River Lower 05</t>
+          <t>White River Lower 04</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -13956,19 +13951,19 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Pool Quantity &amp; Quality</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>Lower Icicle Reach Assessment</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>White River Lower 06</t>
+          <t>White River Lower 05</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -13983,19 +13978,19 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
+          <t>Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Lower Icicle Reach Assessment</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>White River Lower 07</t>
+          <t>White River Lower 06</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -14010,19 +14005,19 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>White River Lower 09</t>
+          <t>White River Lower 07</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -14037,19 +14032,19 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Coarse Substrate</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>White River Upper 01</t>
+          <t>White River Lower 09</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -14059,12 +14054,12 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Upper White River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -14076,7 +14071,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Whitepine Creek 01</t>
+          <t>White River Upper 01</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -14086,51 +14081,51 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Whitepine Creek</t>
+          <t>Upper White River</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Wenatchee Ranger River District Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Whitestone 16-1</t>
+          <t>Whitepine Creek 01</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Whitestone Creek</t>
+          <t>Whitepine Creek</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Okanogan EDT</t>
+          <t>Wenatchee Ranger River District Survey</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Whitestone 16-2</t>
+          <t>Whitestone 16-1</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -14145,7 +14140,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -14157,7 +14152,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Whitestone 16-3</t>
+          <t>Whitestone 16-2</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -14172,7 +14167,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain, Off-Channel- Side-Channels, Riparian-Disturbance</t>
+          <t>Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -14184,7 +14179,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Wildhorse 16-1</t>
+          <t>Whitestone 16-3</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -14194,12 +14189,12 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Wildhorse Spring Creek</t>
+          <t>Whitestone Creek</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Pool Quantity &amp; Quality, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -14211,7 +14206,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Wildhorse 16-2</t>
+          <t>Wildhorse 16-1</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -14226,7 +14221,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -14238,34 +14233,34 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Williams Creek 01</t>
+          <t>Wildhorse 16-2</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Wildhorse Spring Creek</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Flow- Summer Base Flow, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Okanogan EDT</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Wolf Creek 05</t>
+          <t>Williams Creek 01</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -14275,24 +14270,24 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Wolf Creek</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Channel Stability, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Methow Level 2 Survey</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Wolf Creek 06</t>
+          <t>Wolf Creek 05</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -14319,7 +14314,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Wolf Creek North Fork 01</t>
+          <t>Wolf Creek 06</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -14334,34 +14329,34 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>Channel Stability, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Methow Level 2 Survey</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Y Creek 01</t>
+          <t>Wolf Creek North Fork 01</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Upper Chiwawa River</t>
+          <t>Wolf Creek</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -14373,25 +14368,52 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
+          <t>Y Creek 01</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Upper Chiwawa River</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
           <t>Y Creek 02</t>
         </is>
       </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
         <is>
           <t>Upper Chiwawa River</t>
         </is>
       </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Off-Channel- Floodplain, Off-Channel- Side-Channels, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr">
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness, Bank Stability, Channel Stability, Coarse Substrate, Cover- Wood, Pool Quantity &amp; Quality, Riparian- Canopy Cover, Riparian-Disturbance</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
